--- a/ucs-implementation-data.xlsx
+++ b/ucs-implementation-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Organisations" sheetId="1" state="visible" r:id="rId2"/>
@@ -205,7 +205,7 @@
     <t xml:space="preserve">00:25:B5:1A:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">00:25:B5:1A:00:FF</t>
+    <t xml:space="preserve">00:25:B5:1A:02:00</t>
   </si>
   <si>
     <t xml:space="preserve">MacEsxProd_B</t>
@@ -214,10 +214,10 @@
     <t xml:space="preserve">MAC Pool for ESX Production Fabric B</t>
   </si>
   <si>
-    <t xml:space="preserve">00:25:B5:1B:00:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:25:B5:1B:00:FF</t>
+    <t xml:space="preserve">00:25:B5:1B:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1B:01:FF</t>
   </si>
   <si>
     <t xml:space="preserve">MacEsxTest_A</t>
@@ -226,10 +226,10 @@
     <t xml:space="preserve">MAC Pool for ESX Test Fabric A</t>
   </si>
   <si>
-    <t xml:space="preserve">00:25:B5:1A:0A:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:25:B5:1A:0A:FF</t>
+    <t xml:space="preserve">00:25:B5:1A:03:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1A:05:00</t>
   </si>
   <si>
     <t xml:space="preserve">MacEsxTest_B</t>
@@ -238,10 +238,10 @@
     <t xml:space="preserve">MAC Pool for ESX Test Fabric B</t>
   </si>
   <si>
-    <t xml:space="preserve">00:25:B5:1B:0B:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:25:B5:1B:0B:FF</t>
+    <t xml:space="preserve">00:25:B5:1B:03:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1B:05:00</t>
   </si>
   <si>
     <t xml:space="preserve">MacKvmProd_A</t>
@@ -253,7 +253,7 @@
     <t xml:space="preserve">00:25:B5:1A:0C:00</t>
   </si>
   <si>
-    <t xml:space="preserve">04:25:B5:1A:0C:FF</t>
+    <t xml:space="preserve">00:25:B5:1A:0C:FF</t>
   </si>
   <si>
     <t xml:space="preserve">MacKvmProd_B</t>
@@ -265,7 +265,7 @@
     <t xml:space="preserve">00:25:B5:1B:0D:00</t>
   </si>
   <si>
-    <t xml:space="preserve">04:25:B5:1B:0D:FF</t>
+    <t xml:space="preserve">00:25:B5:1B:0D:FF</t>
   </si>
   <si>
     <t xml:space="preserve">MacKvmTest_A</t>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">00:25:B5:1A:0E:00</t>
   </si>
   <si>
-    <t xml:space="preserve">04:25:B5:1A:0E:FF</t>
+    <t xml:space="preserve">00:25:B5:1A:0E:FF</t>
   </si>
   <si>
     <t xml:space="preserve">MacKvmTest_B</t>
@@ -289,7 +289,7 @@
     <t xml:space="preserve">00:25:B5:1B:0F:00</t>
   </si>
   <si>
-    <t xml:space="preserve">04:25:B5:1B:0F:FF</t>
+    <t xml:space="preserve">00:25:B5:1B:0F:FF</t>
   </si>
   <si>
     <t xml:space="preserve">StartWWNN</t>
@@ -850,7 +850,7 @@
     <t xml:space="preserve">0000-000000000001</t>
   </si>
   <si>
-    <t xml:space="preserve">0000-000000000512</t>
+    <t xml:space="preserve">0000-000000000256</t>
   </si>
   <si>
     <t xml:space="preserve">UuidEsxProd</t>
@@ -859,10 +859,10 @@
     <t xml:space="preserve">UUID Pool for Production ESX Servers</t>
   </si>
   <si>
-    <t xml:space="preserve">0000-000000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000-000000000513</t>
+    <t xml:space="preserve">0000-000000001024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000-000000001223</t>
   </si>
   <si>
     <t xml:space="preserve">UuidEsxTest</t>
@@ -871,10 +871,10 @@
     <t xml:space="preserve">UUID Pool for Test ESX Servers</t>
   </si>
   <si>
-    <t xml:space="preserve">0000-000000000003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000-000000000514</t>
+    <t xml:space="preserve">0000-000000001225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000-000000001424</t>
   </si>
   <si>
     <t xml:space="preserve">UuidKvmProd</t>
@@ -883,10 +883,10 @@
     <t xml:space="preserve">UUID Pool for Production KVM Servers</t>
   </si>
   <si>
-    <t xml:space="preserve">0000-000000000004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000-000000000515</t>
+    <t xml:space="preserve">0000-000000001425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000-000000001624</t>
   </si>
   <si>
     <t xml:space="preserve">UuidKvmTest</t>
@@ -4752,7 +4752,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8832,8 +8832,8 @@
   </sheetPr>
   <dimension ref="A1:C176"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9602,8 +9602,8 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10038,7 +10038,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10149,7 +10149,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ucs-implementation-data.xlsx
+++ b/ucs-implementation-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Organisations" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="390">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -121,46 +121,661 @@
     <t xml:space="preserve">KVMLiveMigration</t>
   </si>
   <si>
+    <t xml:space="preserve">Prod-KVM-LM-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prod-KVM-LM-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prod-Backup-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prod-Backup-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IpStorage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prod-IpStorage-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prod-IpStorage-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-Mgmt-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-Mgmt-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-vMotion-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-vMotion-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-KVM-Mgmt-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-KVM-Mgmt-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-KVM-LM-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-KVM-LM-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VsanId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VsanName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VHBA-Template-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VHBA-Template-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRD-ESX-HBA-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRD-KVM-HBA-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRD-ESX-HBA-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRD-KVM-HBA-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST-ESX-HBA-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST-KVM-HBA-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST-ESX-HBA-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST-KVM-HBA-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StartMac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EndMac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MacEsxProd_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC Pool for ESX Production Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1A:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1A:02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MacEsxProd_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC Pool for ESX Production Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1B:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1B:01:FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MacEsxTest_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC Pool for ESX Test Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1A:03:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1A:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MacEsxTest_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC Pool for ESX Test Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1B:03:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1B:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MacKvmProd_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC Pool for KVM Production Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1A:0C:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1A:0C:FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MacKvmProd_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC Pool for KVM Production Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1B:0D:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1B:0D:FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MacKvmTest_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC Pool for KVM Test Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1A:0E:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1A:0E:FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MacKvmTest_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC Pool for KVM Test Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1B:0F:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:25:B5:1B:0F:FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StartWWNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EndWWNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssignmentOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProdWwnnPool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WWNN Pool For Production Hosts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00:00:25:B5:00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00:00:25:B5:00:00:7F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestWwnnPool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WWNN Pool For Test Hosts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00:00:25:B5:00:0a:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00:00:25:B5:00:0a:7F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StartWWPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EndWWPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProdWwpnPool-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WWPN Pool For Production Hosts Side A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00:00:25:b5:01:0a:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00:00:25:B5:01:0A:FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProdWwpnPool-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WWPN Pool For Production Hosts Side B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00:00:25:b5:01:0b:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00:00:25:B5:01:0b:FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestWwpnPool-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00:00:25:b5:01:1a:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00:00:25:B5:01:1A:FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestWwpnPool-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00:00:25:b5:01:1b:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00:00:25:B5:01:1b:FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StartIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EndIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubnetMask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrimaryDNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SecondaryDNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProdMgmtIp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP Pool for Prod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.10.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.10.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255.255.255.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.49.0.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.50.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestMgmtIp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP Pool for Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.10.134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.10.254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.10.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HostControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProdApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QoS Pol for Production Applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">line-rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QoS Pol for Backups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best-effort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FibreChannel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QoS Pol for FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QoS Pol for Mangement vNIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPStorage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QoS Pol for IP Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vMotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QoS Pol for vMotion, LiveMigration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACRegisterMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActionOnUplinkFailure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACSecurityForge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLDPTx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLDPRx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDP-En-LnkDwn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDP Enabled LinkDown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only-native-vlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link-down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLDP-En-LnkDwn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FabricID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RedundancyType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TemplateType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDNSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MacPool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QosPolicy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NetworkControlPolicy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC Template for Production ESX Application vNIC side A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updating-template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vnic-name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC Template for Production ESX Application vNIC side B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC Template for Test ESX Application vNIC side A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC Template for Test ESX Application vNIC side B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-Backup-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-Backup-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-IpStorage-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-IpStorage-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC Template for Production KVM Application vNIC side A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC Template for Production KVM Application vNIC side B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC Template for Test KVM Application vNIC side A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC Template for Test KVM Application vNIC side B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-KVM-Backup-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-KVM-Backup-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNICTemplateName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNICName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NwControlPol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SwitchSide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QosPol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNICOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX-PROD-CON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production Application vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDP-Enable_LnkDwn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production Application vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production Backup vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production Backup vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production IP SAN vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production IP SAN vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production Mgmt vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production Mgmt vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production vMotion vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production vMotion vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX-TEST-CON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test Application vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test Application vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test Backup vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test Backup vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test IP SAN vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test IP SAN vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test Mgmt vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test Mgmt vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test vMotion vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test vMotion vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KVM-PROD-CON</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prod-KVM-LiveMigration-A</t>
   </si>
   <si>
     <t xml:space="preserve">Prod-KVM-LiveMigration-B</t>
   </si>
   <si>
-    <t xml:space="preserve">Backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod-Backup-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod-Backup-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IpStorage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod-IpStorage-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod-IpStorage-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test-Mgmt-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test-Mgmt-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test-vMotion-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test-vMotion-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test-KVM-Mgmt-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test-KVM-Mgmt-B</t>
+    <t xml:space="preserve">KVM-TEST-CON</t>
   </si>
   <si>
     <t xml:space="preserve">Test-KVM-LiveMigration-A</t>
@@ -169,675 +784,93 @@
     <t xml:space="preserve">Test-KVM-LiveMigration-B</t>
   </si>
   <si>
-    <t xml:space="preserve">VsanId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VsanName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StartMac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EndMac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacEsxProd_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAC Pool for ESX Production Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:25:B5:1A:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:25:B5:1A:02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacEsxProd_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAC Pool for ESX Production Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:25:B5:1B:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:25:B5:1B:01:FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacEsxTest_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAC Pool for ESX Test Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:25:B5:1A:03:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:25:B5:1A:05:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacEsxTest_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAC Pool for ESX Test Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:25:B5:1B:03:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:25:B5:1B:05:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacKvmProd_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAC Pool for KVM Production Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:25:B5:1A:0C:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:25:B5:1A:0C:FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacKvmProd_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAC Pool for KVM Production Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:25:B5:1B:0D:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:25:B5:1B:0D:FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacKvmTest_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAC Pool for KVM Test Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:25:B5:1A:0E:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:25:B5:1A:0E:FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacKvmTest_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAC Pool for KVM Test Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:25:B5:1B:0F:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:25:B5:1B:0F:FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StartWWNN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EndWWNN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AssignmentOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProdWwnnPool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WWNN Pool For Production Hosts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:00:00:25:B5:00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:00:00:25:B5:00:00:7F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestWwnnPool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WWNN Pool For Test Hosts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:00:00:25:B5:00:0a:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:00:00:25:B5:00:0a:7F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StartWWPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EndWWPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProdWwpnPool-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WWPN Pool For Production Hosts Side A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:00:00:25:b5:01:0a:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:00:00:25:B5:01:0A:FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProdWwpnPool-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WWPN Pool For Production Hosts Side B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:00:00:25:b5:01:0b:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:00:00:25:B5:01:0b:FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestWwpnPool-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:00:00:25:b5:01:1a:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:00:00:25:B5:01:1A:FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestWwpnPool-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:00:00:25:b5:01:1b:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:00:00:25:B5:01:1b:FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StartIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EndIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubnetMask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gateway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrimaryDNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SecondaryDNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProdMgmtIp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP Pool for Prod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.10.10.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.10.10.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255.255.255.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.10.10.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.49.0.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.50.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestMgmtIp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP Pool for Dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.10.10.134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.10.10.254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.10.10.129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HostControl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProdApp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QoS Pol for Production Applications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">line-rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QoS Pol for Backups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">best-effort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FibreChannel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QoS Pol for FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QoS Pol for Mangement vNIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPStorage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QoS Pol for IP Storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vMotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QoS Pol for vMotion, LiveMigration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestApp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACRegisterMode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActionOnUplinkFailure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACSecurityForge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLDPTx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLDPRx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDP-Enable_LnkDwn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDP Enabled LinkDown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only-native-vlan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link-down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLDP-Enable_LnkDwn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FabricID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RedundancyType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TemplateType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDNSource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacPool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QosPolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetworkControlPolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC Template for Production ESX Application vNIC side A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updating-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vnic-name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC Template for Production ESX Application vNIC side B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC Template for Test ESX Application vNIC side A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC Template for Test ESX Application vNIC side B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test-Backup-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test-Backup-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test-IpStorage-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test-IpStorage-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC Template for Production KVM Application vNIC side A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC Template for Production KVM Application vNIC side B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC Template for Test KVM Application vNIC side A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC Template for Test KVM Application vNIC side B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test-KVM-Backup-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test-KVM-Backup-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNICTemplateName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNICName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NwControlPol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SwitchSide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QosPol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNICOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX-PROD-CON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production Application vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production Application vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production Backup vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production Backup vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production IP SAN vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production IP SAN vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production Mgmt vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production Mgmt vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production vMotion vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production vMotion vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX-TEST-CON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test Application vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test Application vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test Backup vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test Backup vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test IP SAN vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test IP SAN vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test Mgmt vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test Mgmt vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test vMotion vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test vMotion vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KVM-PROD-CON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KVM-TEST-CON</t>
-  </si>
-  <si>
     <t xml:space="preserve">WwpnPool</t>
   </si>
   <si>
-    <t xml:space="preserve">PRD-ESX-HBA-A</t>
-  </si>
-  <si>
     <t xml:space="preserve">vHBA Template for Production ESX SAN Fabric A</t>
   </si>
   <si>
+    <t xml:space="preserve">1201-Prod-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBA Template for Production ESX SAN Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1202-Prod-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBA Template for Production KVM SAN Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBA Template for Production KVM SAN Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBA Template for Test ESX SAN Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1203-Test-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBA Template for Test ESX SAN Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1204-Test-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBA Template for Test KVM SAN Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBA Template for Test KVM SAN Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBATemplateName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBAName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdapterProfile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSANName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX-PROD-SCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBA0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMWare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC</t>
+  </si>
+  <si>
     <t xml:space="preserve">1201_Prod-A</t>
   </si>
   <si>
-    <t xml:space="preserve">PRD-ESX-HBA-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBA Template for Production ESX SAN Fabric B</t>
+    <t xml:space="preserve">vHBA1</t>
   </si>
   <si>
     <t xml:space="preserve">1202_Prod-B</t>
   </si>
   <si>
-    <t xml:space="preserve">PRD-KVM-HBA-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBA Template for Production KVM SAN Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRD-KVM-HBA-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBA Template for Production KVM SAN Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST-ESX-HBA-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBA Template for Test ESX SAN Fabric A</t>
+    <t xml:space="preserve">KVM-PROD-SCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX-TEST-SCON</t>
   </si>
   <si>
     <t xml:space="preserve">1203_Test-A</t>
   </si>
   <si>
-    <t xml:space="preserve">TEST-ESX-HBA-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBA Template for Test ESX SAN Fabric B</t>
-  </si>
-  <si>
     <t xml:space="preserve">1204_Test-B</t>
   </si>
   <si>
-    <t xml:space="preserve">TEST-KVM-HBA-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBA Template for Test KVM SAN Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST-KVM-HBA-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBA Template for Test KVM SAN Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBATemplateName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBAName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AdapterProfile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSANName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX-PROD-SCON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBA0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KVM-PROD-SCON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX-TEST-SCON</t>
-  </si>
-  <si>
     <t xml:space="preserve">KVM-TEST-SCON</t>
   </si>
   <si>
@@ -967,10 +1000,10 @@
     <t xml:space="preserve">Enabled</t>
   </si>
   <si>
+    <t xml:space="preserve">Disabled</t>
+  </si>
+  <si>
     <t xml:space="preserve">QUIET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disabled</t>
   </si>
   <si>
     <t xml:space="preserve">Mode</t>
@@ -1213,16 +1246,16 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1353,7 +1386,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1369,38 +1402,38 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>49</v>
+      <c r="B1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,31 +1441,31 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>2</v>
@@ -1442,32 +1475,32 @@
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>177</v>
+      <c r="B3" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>2</v>
@@ -1478,31 +1511,31 @@
         <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>2</v>
@@ -1512,32 +1545,32 @@
       <c r="A5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>177</v>
+      <c r="B5" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>2</v>
@@ -1548,31 +1581,31 @@
         <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>2</v>
@@ -1582,32 +1615,32 @@
       <c r="A7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>177</v>
+      <c r="B7" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>2</v>
@@ -1618,31 +1651,31 @@
         <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>144</v>
+        <v>60</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>2</v>
@@ -1652,32 +1685,32 @@
       <c r="A9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>177</v>
+      <c r="B9" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>144</v>
+        <v>64</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>2</v>
@@ -1688,31 +1721,31 @@
         <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>2</v>
@@ -1722,32 +1755,32 @@
       <c r="A11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>177</v>
+      <c r="B11" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>2</v>
@@ -1758,31 +1791,31 @@
         <v>9</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>1</v>
@@ -1793,31 +1826,31 @@
         <v>10</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>1</v>
@@ -1825,34 +1858,34 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>1</v>
@@ -1860,34 +1893,34 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>1</v>
@@ -1895,34 +1928,34 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>1</v>
@@ -1930,34 +1963,34 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>1</v>
@@ -1968,31 +2001,31 @@
         <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>144</v>
+        <v>68</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>1</v>
@@ -2003,31 +2036,31 @@
         <v>34</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>144</v>
+        <v>72</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>1</v>
@@ -2038,31 +2071,31 @@
         <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>1</v>
@@ -2073,31 +2106,31 @@
         <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>1</v>
@@ -2108,31 +2141,31 @@
         <v>11</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>2</v>
@@ -2142,32 +2175,32 @@
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="F23" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>2</v>
@@ -2178,31 +2211,31 @@
         <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>2</v>
@@ -2212,32 +2245,32 @@
       <c r="A25" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="F25" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>2</v>
@@ -2248,31 +2281,31 @@
         <v>31</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>2</v>
@@ -2282,32 +2315,32 @@
       <c r="A27" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="F27" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>2</v>
@@ -2318,31 +2351,31 @@
         <v>22</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>144</v>
+        <v>76</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>2</v>
@@ -2352,32 +2385,32 @@
       <c r="A29" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="F29" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>144</v>
+        <v>80</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>2</v>
@@ -2388,31 +2421,31 @@
         <v>25</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>2</v>
@@ -2422,32 +2455,32 @@
       <c r="A31" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="F31" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>2</v>
@@ -2458,31 +2491,31 @@
         <v>13</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>1</v>
@@ -2493,31 +2526,31 @@
         <v>14</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>1</v>
@@ -2525,34 +2558,34 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>1</v>
@@ -2560,34 +2593,34 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>1</v>
@@ -2595,34 +2628,34 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>1</v>
@@ -2630,34 +2663,34 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K37" s="0" t="s">
         <v>1</v>
@@ -2668,31 +2701,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F38" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>144</v>
+        <v>84</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>1</v>
@@ -2703,31 +2736,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>144</v>
+        <v>88</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>1</v>
@@ -2738,31 +2771,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>1</v>
@@ -2773,31 +2806,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K41" s="0" t="s">
         <v>1</v>
@@ -2837,61 +2870,61 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>49</v>
+      <c r="B1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>3</v>
@@ -2902,28 +2935,28 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>4</v>
@@ -2934,28 +2967,28 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>5</v>
@@ -2966,28 +2999,28 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>6</v>
@@ -2998,28 +3031,28 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>7</v>
@@ -3030,28 +3063,28 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>8</v>
@@ -3062,28 +3095,28 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>144</v>
+        <v>60</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>9</v>
@@ -3094,28 +3127,28 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>144</v>
+        <v>64</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>10</v>
@@ -3126,28 +3159,28 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>11</v>
@@ -3158,28 +3191,28 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>12</v>
@@ -3190,28 +3223,28 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>3</v>
@@ -3222,28 +3255,28 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>4</v>
@@ -3254,28 +3287,28 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>5</v>
@@ -3286,28 +3319,28 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>6</v>
@@ -3318,28 +3351,28 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>7</v>
@@ -3350,28 +3383,28 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>8</v>
@@ -3382,28 +3415,28 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="F18" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>144</v>
+        <v>68</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>9</v>
@@ -3414,28 +3447,28 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>144</v>
+        <v>72</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>10</v>
@@ -3446,28 +3479,28 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>11</v>
@@ -3478,28 +3511,28 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>12</v>
@@ -3510,28 +3543,28 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>3</v>
@@ -3542,28 +3575,28 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>185</v>
+        <v>211</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>4</v>
@@ -3574,28 +3607,28 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>5</v>
@@ -3606,28 +3639,28 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>185</v>
+        <v>215</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>6</v>
@@ -3638,28 +3671,28 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>7</v>
@@ -3670,28 +3703,28 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>185</v>
+        <v>219</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>8</v>
@@ -3702,28 +3735,28 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="F28" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>144</v>
+        <v>76</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>9</v>
@@ -3734,28 +3767,28 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>185</v>
+        <v>223</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>144</v>
+        <v>80</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>10</v>
@@ -3766,28 +3799,28 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>11</v>
@@ -3798,28 +3831,28 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>185</v>
+        <v>227</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>12</v>
@@ -3830,28 +3863,28 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>3</v>
@@ -3862,28 +3895,28 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>4</v>
@@ -3894,28 +3927,28 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>5</v>
@@ -3926,28 +3959,28 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>6</v>
@@ -3958,28 +3991,28 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>7</v>
@@ -3990,28 +4023,28 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>8</v>
@@ -4022,28 +4055,28 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="F38" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>144</v>
+        <v>84</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>9</v>
@@ -4054,28 +4087,28 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>144</v>
+        <v>88</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>10</v>
@@ -4086,28 +4119,28 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>11</v>
@@ -4118,28 +4151,28 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>12</v>
@@ -4164,10 +4197,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4177,233 +4210,260 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>49</v>
+      <c r="G1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="H2" s="0" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="H3" s="0" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="H4" s="0" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="H5" s="0" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="H6" s="0" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="H7" s="0" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>248</v>
+        <v>53</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="H8" s="0" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="H9" s="0" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="3"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3"/>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4441,66 +4501,66 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>49</v>
+        <v>259</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>2</v>
@@ -4508,34 +4568,34 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>2</v>
@@ -4543,31 +4603,31 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>2</v>
@@ -4575,31 +4635,31 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>2</v>
@@ -4607,31 +4667,31 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>1</v>
@@ -4639,31 +4699,31 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>1</v>
@@ -4671,31 +4731,31 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>248</v>
+        <v>53</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>1</v>
@@ -4703,31 +4763,31 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>1</v>
@@ -4763,33 +4823,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -4797,16 +4857,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
@@ -4814,16 +4874,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
@@ -4831,16 +4891,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
@@ -4875,24 +4935,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -4900,13 +4960,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -4941,18 +5001,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -4960,10 +5020,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -5001,59 +5061,59 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -5072,10 +5132,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5085,25 +5145,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5111,22 +5171,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5134,22 +5194,68 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="D3" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>306</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -5181,25 +5287,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5207,22 +5313,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5230,22 +5336,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -5267,7 +5373,7 @@
   <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E175" activeCellId="0" sqref="E175"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8073,26 +8179,29 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.09"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8100,13 +8209,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>115200</v>
@@ -8117,13 +8226,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>9600</v>
@@ -8155,25 +8264,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8181,22 +8290,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8204,22 +8313,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -8251,25 +8360,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8277,22 +8386,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8300,22 +8409,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -8348,34 +8457,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8383,25 +8492,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8409,25 +8518,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -8464,113 +8573,113 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.74"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>49</v>
+      <c r="G1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="H2" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="J2" s="0" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>2</v>
@@ -8578,55 +8687,55 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="H3" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="J3" s="0" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>2</v>
@@ -8634,55 +8743,55 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>1</v>
@@ -8690,55 +8799,55 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>1</v>
@@ -8774,16 +8883,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8791,7 +8900,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>300</v>
@@ -8805,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>500</v>
@@ -8830,15 +8939,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="16.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8851,6 +8961,12 @@
       <c r="C1" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -8861,7 +8977,13 @@
         <v>1201-Prod-A</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8873,7 +8995,13 @@
         <v>1202-Prod-B</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8885,7 +9013,13 @@
         <v>1203-Test-A</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8897,7 +9031,13 @@
         <v>1204-Test-B</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9602,7 +9742,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -9619,30 +9759,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -9650,16 +9790,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -9667,16 +9807,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -9684,16 +9824,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
@@ -9701,16 +9841,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>2</v>
@@ -9718,16 +9858,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>2</v>
@@ -9735,16 +9875,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1</v>
@@ -9752,16 +9892,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>1</v>
@@ -9803,36 +9943,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -9840,19 +9980,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -9912,36 +10052,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -9949,19 +10089,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
@@ -9969,19 +10109,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
@@ -9989,19 +10129,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1</v>
@@ -10048,54 +10188,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>2</v>
@@ -10103,28 +10243,28 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>1</v>
@@ -10162,42 +10302,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>10240</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
@@ -10205,22 +10345,22 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>10240</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -10228,22 +10368,22 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>10240</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>2</v>
@@ -10251,22 +10391,22 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>10240</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>2</v>
@@ -10274,22 +10414,22 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>10240</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>2</v>
@@ -10297,22 +10437,22 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>140</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>10240</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>2</v>
@@ -10320,22 +10460,22 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>10240</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>1</v>
@@ -10343,22 +10483,22 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>10240</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>1</v>
@@ -10366,22 +10506,22 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>10240</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>1</v>
@@ -10389,22 +10529,22 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>10240</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>1</v>
@@ -10412,22 +10552,22 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>10240</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>1</v>
@@ -10435,22 +10575,22 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>140</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>10240</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>1</v>
@@ -10494,54 +10634,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>2</v>
@@ -10549,28 +10689,28 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>2</v>
@@ -10578,28 +10718,28 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>1</v>
@@ -10607,28 +10747,28 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>1</v>

--- a/ucs-implementation-data.xlsx
+++ b/ucs-implementation-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Organisations" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="392">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -658,180 +658,189 @@
     <t xml:space="preserve">NwControlPol</t>
   </si>
   <si>
+    <t xml:space="preserve">SwitchID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QosPol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNICOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdapterPol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX-PROD-CON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production Application vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMWare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production Application vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production Backup vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production Backup vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production IP SAN vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production IP SAN vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production Mgmt vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production Mgmt vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production vMotion vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNIC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Production vMotion vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX-TEST-CON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test Application vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test Application vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test Backup vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test Backup vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test IP SAN vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test IP SAN vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test Mgmt vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test Mgmt vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test vMotion vNIC Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESX Test vMotion vNIC Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KVM-PROD-CON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prod-KVM-LiveMigration-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prod-KVM-LiveMigration-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KVM-TEST-CON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-KVM-LiveMigration-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test-KVM-LiveMigration-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WwpnPool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBA Template for Production ESX SAN Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1201-Prod-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBA Template for Production ESX SAN Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1202-Prod-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBA Template for Production KVM SAN Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBA Template for Production KVM SAN Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBA Template for Test ESX SAN Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1203-Test-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBA Template for Test ESX SAN Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1204-Test-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBA Template for Test KVM SAN Fabric A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBA Template for Test KVM SAN Fabric B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBATemplateName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vHBAName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdapterProfile</t>
+  </si>
+  <si>
     <t xml:space="preserve">SwitchSide</t>
   </si>
   <si>
-    <t xml:space="preserve">QosPol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNICOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX-PROD-CON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production Application vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDP-Enable_LnkDwn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production Application vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production Backup vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production Backup vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production IP SAN vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production IP SAN vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production Mgmt vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production Mgmt vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production vMotion vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vNIC10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Production vMotion vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX-TEST-CON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test Application vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test Application vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test Backup vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test Backup vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test IP SAN vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test IP SAN vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test Mgmt vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test Mgmt vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test vMotion vNIC Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESX Test vMotion vNIC Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KVM-PROD-CON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod-KVM-LiveMigration-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod-KVM-LiveMigration-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KVM-TEST-CON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test-KVM-LiveMigration-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test-KVM-LiveMigration-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WwpnPool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBA Template for Production ESX SAN Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1201-Prod-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBA Template for Production ESX SAN Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1202-Prod-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBA Template for Production KVM SAN Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBA Template for Production KVM SAN Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBA Template for Test ESX SAN Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1203-Test-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBA Template for Test ESX SAN Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1204-Test-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBA Template for Test KVM SAN Fabric A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBA Template for Test KVM SAN Fabric B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBATemplateName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vHBAName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AdapterProfile</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSANName</t>
   </si>
   <si>
@@ -841,9 +850,6 @@
     <t xml:space="preserve">vHBA0</t>
   </si>
   <si>
-    <t xml:space="preserve">VMWare</t>
-  </si>
-  <si>
     <t xml:space="preserve">FC</t>
   </si>
   <si>
@@ -859,9 +865,6 @@
     <t xml:space="preserve">KVM-PROD-SCON</t>
   </si>
   <si>
-    <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
     <t xml:space="preserve">ESX-TEST-SCON</t>
   </si>
   <si>
@@ -1121,6 +1124,9 @@
   </si>
   <si>
     <t xml:space="preserve">4.0.3 Firmware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
   </si>
   <si>
     <t xml:space="preserve">immediate</t>
@@ -1386,7 +1392,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2852,10 +2858,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2900,22 +2906,28 @@
       <c r="J1" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="0" t="s">
         <v>210</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>46</v>
@@ -2932,22 +2944,28 @@
       <c r="J2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K2" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>49</v>
@@ -2964,22 +2982,28 @@
       <c r="J3" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K3" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>46</v>
@@ -2996,22 +3020,28 @@
       <c r="J4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K4" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>210</v>
+        <v>217</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>49</v>
@@ -3028,22 +3058,28 @@
       <c r="J5" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K5" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>210</v>
+        <v>219</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>46</v>
@@ -3060,22 +3096,28 @@
       <c r="J6" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K6" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>210</v>
+        <v>221</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>49</v>
@@ -3092,22 +3134,28 @@
       <c r="J7" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K7" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>210</v>
+        <v>223</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>46</v>
@@ -3124,22 +3172,28 @@
       <c r="J8" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K8" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>210</v>
+        <v>225</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>49</v>
@@ -3156,22 +3210,28 @@
       <c r="J9" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K9" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>210</v>
+        <v>227</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>46</v>
@@ -3188,22 +3248,28 @@
       <c r="J10" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K10" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>210</v>
+        <v>229</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>49</v>
@@ -3220,22 +3286,28 @@
       <c r="J11" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K11" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>210</v>
+        <v>231</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>46</v>
@@ -3252,22 +3324,28 @@
       <c r="J12" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K12" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>210</v>
+        <v>232</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>49</v>
@@ -3284,22 +3362,28 @@
       <c r="J13" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K13" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>190</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>46</v>
@@ -3316,22 +3400,28 @@
       <c r="J14" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K14" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>191</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>210</v>
+        <v>234</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>49</v>
@@ -3348,22 +3438,28 @@
       <c r="J15" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K15" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>192</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>210</v>
+        <v>235</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>46</v>
@@ -3380,22 +3476,28 @@
       <c r="J16" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K16" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>193</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>210</v>
+        <v>236</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>49</v>
@@ -3412,22 +3514,28 @@
       <c r="J17" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K17" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>210</v>
+        <v>237</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>46</v>
@@ -3444,22 +3552,28 @@
       <c r="J18" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K18" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>210</v>
+        <v>238</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>49</v>
@@ -3476,22 +3590,28 @@
       <c r="J19" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K19" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>210</v>
+        <v>239</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>46</v>
@@ -3508,22 +3628,28 @@
       <c r="J20" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K20" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>210</v>
+        <v>240</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>49</v>
@@ -3540,22 +3666,28 @@
       <c r="J21" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K21" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>210</v>
+      <c r="E22" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>46</v>
@@ -3572,22 +3704,28 @@
       <c r="J22" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K22" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>210</v>
+      <c r="E23" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>49</v>
@@ -3604,22 +3742,28 @@
       <c r="J23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K23" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>210</v>
+      <c r="E24" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>46</v>
@@ -3636,22 +3780,28 @@
       <c r="J24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K24" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>210</v>
+      <c r="E25" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>49</v>
@@ -3668,22 +3818,28 @@
       <c r="J25" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K25" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>210</v>
+      <c r="E26" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>46</v>
@@ -3700,22 +3856,28 @@
       <c r="J26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K26" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>210</v>
+      <c r="E27" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>49</v>
@@ -3732,22 +3894,28 @@
       <c r="J27" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K27" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>210</v>
+      <c r="E28" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>46</v>
@@ -3764,22 +3932,28 @@
       <c r="J28" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K28" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>210</v>
+      <c r="E29" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>49</v>
@@ -3796,22 +3970,28 @@
       <c r="J29" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K29" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>210</v>
+      <c r="E30" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>46</v>
@@ -3828,22 +4008,28 @@
       <c r="J30" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K30" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>210</v>
+      <c r="E31" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>49</v>
@@ -3860,22 +4046,28 @@
       <c r="J31" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K31" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>210</v>
+      <c r="E32" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>46</v>
@@ -3892,22 +4084,28 @@
       <c r="J32" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K32" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>210</v>
+      <c r="E33" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>49</v>
@@ -3924,22 +4122,28 @@
       <c r="J33" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K33" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>198</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>210</v>
+      <c r="E34" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>46</v>
@@ -3956,22 +4160,28 @@
       <c r="J34" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K34" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>199</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>210</v>
+      <c r="E35" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>49</v>
@@ -3988,22 +4198,28 @@
       <c r="J35" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K35" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>192</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>210</v>
+      <c r="E36" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>46</v>
@@ -4020,22 +4236,28 @@
       <c r="J36" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K36" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>193</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>210</v>
+      <c r="E37" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>49</v>
@@ -4052,22 +4274,28 @@
       <c r="J37" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K37" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>210</v>
+      <c r="E38" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>46</v>
@@ -4084,22 +4312,28 @@
       <c r="J38" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K38" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>210</v>
+      <c r="E39" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>49</v>
@@ -4116,22 +4350,28 @@
       <c r="J39" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K39" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>210</v>
+      <c r="E40" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>46</v>
@@ -4148,22 +4388,28 @@
       <c r="J40" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K40" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>210</v>
+      <c r="E41" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>49</v>
@@ -4179,6 +4425,12 @@
       </c>
       <c r="J41" s="0" t="s">
         <v>1</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>9000</v>
       </c>
     </row>
   </sheetData>
@@ -4199,7 +4451,7 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4227,7 +4479,7 @@
         <v>178</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>42</v>
@@ -4244,7 +4496,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>46</v>
@@ -4256,7 +4508,7 @@
         <v>106</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>2</v>
@@ -4270,7 +4522,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>49</v>
@@ -4282,7 +4534,7 @@
         <v>110</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>2</v>
@@ -4296,7 +4548,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>46</v>
@@ -4308,7 +4560,7 @@
         <v>106</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>2</v>
@@ -4322,7 +4574,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>49</v>
@@ -4334,7 +4586,7 @@
         <v>110</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>2</v>
@@ -4348,7 +4600,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>46</v>
@@ -4360,7 +4612,7 @@
         <v>114</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>1</v>
@@ -4374,7 +4626,7 @@
         <v>54</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>49</v>
@@ -4386,7 +4638,7 @@
         <v>117</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>1</v>
@@ -4400,7 +4652,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>46</v>
@@ -4412,7 +4664,7 @@
         <v>114</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>1</v>
@@ -4426,7 +4678,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>49</v>
@@ -4438,7 +4690,7 @@
         <v>117</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>1</v>
@@ -4501,22 +4753,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>202</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>205</v>
@@ -4525,7 +4777,7 @@
         <v>206</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>59</v>
@@ -4533,19 +4785,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>46</v>
@@ -4554,13 +4806,13 @@
         <v>106</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>2</v>
@@ -4568,19 +4820,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>49</v>
@@ -4589,13 +4841,13 @@
         <v>110</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>2</v>
@@ -4603,16 +4855,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>46</v>
@@ -4621,13 +4873,13 @@
         <v>106</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>2</v>
@@ -4635,16 +4887,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>49</v>
@@ -4653,13 +4905,13 @@
         <v>110</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>2</v>
@@ -4667,16 +4919,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>46</v>
@@ -4685,13 +4937,13 @@
         <v>114</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>1</v>
@@ -4699,16 +4951,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>49</v>
@@ -4717,13 +4969,13 @@
         <v>117</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>1</v>
@@ -4731,16 +4983,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>46</v>
@@ -4749,13 +5001,13 @@
         <v>114</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>1</v>
@@ -4763,16 +5015,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>49</v>
@@ -4781,13 +5033,13 @@
         <v>117</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>1</v>
@@ -4823,10 +5075,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4840,16 +5092,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -4857,16 +5109,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
@@ -4874,16 +5126,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
@@ -4891,16 +5143,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
@@ -4935,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>56</v>
@@ -4946,13 +5198,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -4960,13 +5212,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -5009,10 +5261,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -5020,10 +5272,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -5067,53 +5319,53 @@
         <v>59</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -5154,16 +5406,16 @@
         <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5171,22 +5423,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5194,22 +5446,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>317</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5217,22 +5469,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5240,22 +5492,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>317</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5277,7 +5529,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5296,16 +5548,16 @@
         <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5313,22 +5565,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5336,22 +5588,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -8198,10 +8450,10 @@
         <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8209,13 +8461,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>115200</v>
@@ -8226,13 +8478,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>332</v>
-      </c>
       <c r="D3" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>9600</v>
@@ -8257,7 +8509,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8273,16 +8525,16 @@
         <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8290,22 +8542,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8313,22 +8565,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -8350,12 +8602,12 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8369,16 +8621,16 @@
         <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8386,22 +8638,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8409,22 +8661,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -8446,7 +8698,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8463,28 +8715,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8492,25 +8744,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>360</v>
+      </c>
       <c r="G2" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H2" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>360</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8518,25 +8776,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>360</v>
+      </c>
       <c r="G3" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H3" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>360</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -8558,7 +8822,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q13" activeCellId="0" sqref="Q13"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8578,52 +8842,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>59</v>
@@ -8631,55 +8895,55 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>126</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>126</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>2</v>
@@ -8687,55 +8951,55 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>380</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>126</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>126</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>2</v>
@@ -8743,55 +9007,55 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>381</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>134</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>134</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>1</v>
@@ -8799,55 +9063,55 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>134</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>134</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>1</v>
@@ -8886,13 +9150,13 @@
         <v>59</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8900,7 +9164,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>300</v>
@@ -8914,7 +9178,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>500</v>
@@ -9926,7 +10190,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
